--- a/ResultadoEleicoesDistritos/BRAGA_ESPOSENDE.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGA_ESPOSENDE.xlsx
@@ -597,64 +597,64 @@
         <v>10025</v>
       </c>
       <c r="H2" t="n">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="I2" t="n">
-        <v>1015</v>
+        <v>984</v>
       </c>
       <c r="J2" t="n">
-        <v>4176</v>
+        <v>4180</v>
       </c>
       <c r="K2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L2" t="n">
-        <v>1117</v>
+        <v>1039</v>
       </c>
       <c r="M2" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N2" t="n">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R2" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="S2" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="T2" t="n">
-        <v>689</v>
+        <v>738</v>
       </c>
       <c r="U2" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="V2" t="n">
-        <v>6390</v>
+        <v>6462</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>6464</v>
+        <v>6386</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AA2" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
